--- a/prat17-35.xlsx
+++ b/prat17-35.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0E0F0E-7B40-4848-98D5-4A49BF8DF60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA452C-2B8F-4AED-860A-3012C93B36D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8D6E5D5-92DD-4106-B047-F758B873C913}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D8D6E5D5-92DD-4106-B047-F758B873C913}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$3</definedName>
@@ -58,8 +59,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>f(x)</t>
   </si>
@@ -90,15 +113,180 @@
   <si>
     <t>std.dev</t>
   </si>
+  <si>
+    <t>Ques.  Illustrating the central limit theorem</t>
+  </si>
+  <si>
+    <t>Sample 1</t>
+  </si>
+  <si>
+    <t>Sample 2</t>
+  </si>
+  <si>
+    <t>Sample 3</t>
+  </si>
+  <si>
+    <t>Sample 4</t>
+  </si>
+  <si>
+    <t>Sample 5</t>
+  </si>
+  <si>
+    <t>Sample 6</t>
+  </si>
+  <si>
+    <t>Sample 7</t>
+  </si>
+  <si>
+    <t>Sample 8</t>
+  </si>
+  <si>
+    <t>Sample 9</t>
+  </si>
+  <si>
+    <t>Sample 10</t>
+  </si>
+  <si>
+    <t>Sample 11</t>
+  </si>
+  <si>
+    <t>Sample 12</t>
+  </si>
+  <si>
+    <t>Sample 13</t>
+  </si>
+  <si>
+    <t>Sample 14</t>
+  </si>
+  <si>
+    <t>Sample 15</t>
+  </si>
+  <si>
+    <t>Sample 16</t>
+  </si>
+  <si>
+    <t>Sample 17</t>
+  </si>
+  <si>
+    <t>Sample 18</t>
+  </si>
+  <si>
+    <t>Sample 19</t>
+  </si>
+  <si>
+    <t>Sample 20</t>
+  </si>
+  <si>
+    <t>Sample 21</t>
+  </si>
+  <si>
+    <t>Sample 22</t>
+  </si>
+  <si>
+    <t>Sample 23</t>
+  </si>
+  <si>
+    <t>Sample 24</t>
+  </si>
+  <si>
+    <t>Sample 25</t>
+  </si>
+  <si>
+    <t>Sample 26</t>
+  </si>
+  <si>
+    <t>Sample 27</t>
+  </si>
+  <si>
+    <t>Sample 28</t>
+  </si>
+  <si>
+    <t>Sample 29</t>
+  </si>
+  <si>
+    <t>Sample 30</t>
+  </si>
+  <si>
+    <t>Sample 31</t>
+  </si>
+  <si>
+    <t>Sample 32</t>
+  </si>
+  <si>
+    <t>Sample 33</t>
+  </si>
+  <si>
+    <t>Sample 34</t>
+  </si>
+  <si>
+    <t>Sample 35</t>
+  </si>
+  <si>
+    <t>Sample 36</t>
+  </si>
+  <si>
+    <t>Sample 37</t>
+  </si>
+  <si>
+    <t>Sample 38</t>
+  </si>
+  <si>
+    <t>Sample 39</t>
+  </si>
+  <si>
+    <t>Sample 40</t>
+  </si>
+  <si>
+    <t>Sample 41</t>
+  </si>
+  <si>
+    <t>Sample 42</t>
+  </si>
+  <si>
+    <t>Sample 43</t>
+  </si>
+  <si>
+    <t>Sample 44</t>
+  </si>
+  <si>
+    <t>Sample 45</t>
+  </si>
+  <si>
+    <t>Sample 46</t>
+  </si>
+  <si>
+    <t>Sample 47</t>
+  </si>
+  <si>
+    <t>Sample 48</t>
+  </si>
+  <si>
+    <t>Sample 49</t>
+  </si>
+  <si>
+    <t>Sample 50</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>bins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,8 +312,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5368,15 +5557,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5703,8 +5892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F491965A-C215-4929-B3EB-8238BBD4BA46}">
   <dimension ref="D1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7883,7 +8072,7 @@
   <dimension ref="D1:I192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9633,4 +9822,4872 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F310740-5366-45B1-B84E-5D2D3F06C1F1}">
+  <dimension ref="A1:AA53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:R18" ca="1" si="0">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:U18" ca="1" si="1">RANDBETWEEN(1,6)</f>
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f ca="1">AVERAGE(B3:U3)</f>
+        <v>3.5</v>
+      </c>
+      <c r="W3" cm="1">
+        <f t="array" aca="1" ref="W3:W53" ca="1">FREQUENCY(V3:V52,Z3:Z52)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3" cm="1">
+        <f t="array" aca="1" ref="AA3:AA8" ca="1">FREQUENCY(V3:V52,Z3:Z7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B52" ca="1" si="2">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:U52" ca="1" si="3">RANDBETWEEN(1,6)</f>
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V52" ca="1" si="4">AVERAGE(B4:U4)</f>
+        <v>3.15</v>
+      </c>
+      <c r="W4">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W5">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3</v>
+      </c>
+      <c r="W6">
+        <f ca="1"/>
+        <v>32</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <f ca="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.65</v>
+      </c>
+      <c r="W7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W8">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.75</v>
+      </c>
+      <c r="W9">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7</v>
+      </c>
+      <c r="W10">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="W11">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.15</v>
+      </c>
+      <c r="W12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="W13">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="W14">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.55</v>
+      </c>
+      <c r="W15">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.35</v>
+      </c>
+      <c r="W16">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3</v>
+      </c>
+      <c r="W17">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7</v>
+      </c>
+      <c r="W18">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C18:R52" ca="1" si="5">RANDBETWEEN(1,6)</f>
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.05</v>
+      </c>
+      <c r="W20">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.2</v>
+      </c>
+      <c r="W21">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.9</v>
+      </c>
+      <c r="W22">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="W23">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3</v>
+      </c>
+      <c r="W24">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="W25">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="V26">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.95</v>
+      </c>
+      <c r="W26">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="W27">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.9</v>
+      </c>
+      <c r="W28">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="W29">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1</v>
+      </c>
+      <c r="W31">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.4</v>
+      </c>
+      <c r="W32">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.9</v>
+      </c>
+      <c r="W33">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="C34:R52" ca="1" si="6">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.45</v>
+      </c>
+      <c r="W34">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="V35">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7</v>
+      </c>
+      <c r="W35">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U36">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="V36">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.55</v>
+      </c>
+      <c r="W36">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U37">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.35</v>
+      </c>
+      <c r="W37">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.75</v>
+      </c>
+      <c r="W38">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.85</v>
+      </c>
+      <c r="W39">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="P40">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S40">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V40">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.95</v>
+      </c>
+      <c r="W40">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="P41">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U41">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="V41">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.2</v>
+      </c>
+      <c r="W41">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="P42">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="V42">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.25</v>
+      </c>
+      <c r="W42">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="R43">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V43">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1</v>
+      </c>
+      <c r="W43">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O44">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T44">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U44">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V44">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.95</v>
+      </c>
+      <c r="W44">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T45">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U45">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="V45">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U46">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W46">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P47">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T47">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.45</v>
+      </c>
+      <c r="W47">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="P48">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="R48">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T48">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U48">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.3</v>
+      </c>
+      <c r="W48">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U49">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="V49">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="W49">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="N50">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="O50">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="P50">
+        <f t="shared" ref="C50:R52" ca="1" si="7">RANDBETWEEN(1,6)</f>
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="R50">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T50">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.75</v>
+      </c>
+      <c r="W50">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="N51">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="O51">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="R51">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S51">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T51">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="U51">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V51">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.45</v>
+      </c>
+      <c r="W51">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S52">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="U52">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="V52">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="W52">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>